--- a/artfynd/A 362-2023 artfynd.xlsx
+++ b/artfynd/A 362-2023 artfynd.xlsx
@@ -904,7 +904,7 @@
         <v>129341768</v>
       </c>
       <c r="B4" t="n">
-        <v>57893</v>
+        <v>57897</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
